--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icosl-Icos.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icosl-Icos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3428465</v>
+        <v>0.9729185</v>
       </c>
       <c r="H2">
-        <v>2.685693</v>
+        <v>1.945837</v>
       </c>
       <c r="I2">
-        <v>0.05603398604231225</v>
+        <v>0.02381285328060464</v>
       </c>
       <c r="J2">
-        <v>0.03851650726405265</v>
+        <v>0.0162499030227101</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.094498</v>
+        <v>0.05617466666666667</v>
       </c>
       <c r="N2">
-        <v>0.188996</v>
+        <v>0.168524</v>
       </c>
       <c r="O2">
-        <v>0.15909816648811</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="P2">
-        <v>0.1147023623117688</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="Q2">
-        <v>0.126896308557</v>
+        <v>0.05465337243133334</v>
       </c>
       <c r="R2">
-        <v>0.5075852342279999</v>
+        <v>0.327920234588</v>
       </c>
       <c r="S2">
-        <v>0.008914904440352228</v>
+        <v>0.01445576959691586</v>
       </c>
       <c r="T2">
-        <v>0.004417934371185243</v>
+        <v>0.009864624423644839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3428465</v>
+        <v>0.9729185</v>
       </c>
       <c r="H3">
-        <v>2.685693</v>
+        <v>1.945837</v>
       </c>
       <c r="I3">
-        <v>0.05603398604231225</v>
+        <v>0.02381285328060464</v>
       </c>
       <c r="J3">
-        <v>0.03851650726405265</v>
+        <v>0.0162499030227101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.039675</v>
+        <v>0.03636133333333334</v>
       </c>
       <c r="N3">
-        <v>0.07935</v>
+        <v>0.109084</v>
       </c>
       <c r="O3">
-        <v>0.06679738994916047</v>
+        <v>0.3929425664966427</v>
       </c>
       <c r="P3">
-        <v>0.04815780465956347</v>
+        <v>0.3929425664966428</v>
       </c>
       <c r="Q3">
-        <v>0.0532774348875</v>
+        <v>0.03537661388466667</v>
       </c>
       <c r="R3">
-        <v>0.21310973955</v>
+        <v>0.212259683308</v>
       </c>
       <c r="S3">
-        <v>0.003742924016074147</v>
+        <v>0.009357083683688787</v>
       </c>
       <c r="T3">
-        <v>0.001854870432990905</v>
+        <v>0.006385278599065259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3428465</v>
+        <v>0.8368026666666667</v>
       </c>
       <c r="H4">
-        <v>2.685693</v>
+        <v>2.510408</v>
       </c>
       <c r="I4">
-        <v>0.05603398604231225</v>
+        <v>0.02048132410489887</v>
       </c>
       <c r="J4">
-        <v>0.03851650726405265</v>
+        <v>0.02096469876327545</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4597873333333333</v>
+        <v>0.05617466666666667</v>
       </c>
       <c r="N4">
-        <v>1.379362</v>
+        <v>0.168524</v>
       </c>
       <c r="O4">
-        <v>0.7741044435627296</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="P4">
-        <v>0.8371398330286677</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="Q4">
-        <v>0.6174238113109999</v>
+        <v>0.04700711086577778</v>
       </c>
       <c r="R4">
-        <v>3.704542867866</v>
+        <v>0.423063997792</v>
       </c>
       <c r="S4">
-        <v>0.04337615758588588</v>
+        <v>0.01243334004587035</v>
       </c>
       <c r="T4">
-        <v>0.0322437024598765</v>
+        <v>0.012726776225405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>2.510408</v>
       </c>
       <c r="I5">
-        <v>0.03491790680779201</v>
+        <v>0.02048132410489887</v>
       </c>
       <c r="J5">
-        <v>0.03600268086029784</v>
+        <v>0.02096469876327545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.094498</v>
+        <v>0.03636133333333334</v>
       </c>
       <c r="N5">
-        <v>0.188996</v>
+        <v>0.109084</v>
       </c>
       <c r="O5">
-        <v>0.15909816648811</v>
+        <v>0.3929425664966427</v>
       </c>
       <c r="P5">
-        <v>0.1147023623117688</v>
+        <v>0.3929425664966428</v>
       </c>
       <c r="Q5">
-        <v>0.07907617839466667</v>
+        <v>0.03042726069688889</v>
       </c>
       <c r="R5">
-        <v>0.474457070368</v>
+        <v>0.273845346272</v>
       </c>
       <c r="S5">
-        <v>0.005555374950722405</v>
+        <v>0.008047984059028514</v>
       </c>
       <c r="T5">
-        <v>0.004129592544232868</v>
+        <v>0.008237922537870448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8368026666666667</v>
+        <v>7.275335000000001</v>
       </c>
       <c r="H6">
-        <v>2.510408</v>
+        <v>21.826005</v>
       </c>
       <c r="I6">
-        <v>0.03491790680779201</v>
+        <v>0.1780688566639937</v>
       </c>
       <c r="J6">
-        <v>0.03600268086029784</v>
+        <v>0.1822714156546441</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.039675</v>
+        <v>0.05617466666666667</v>
       </c>
       <c r="N6">
-        <v>0.07935</v>
+        <v>0.168524</v>
       </c>
       <c r="O6">
-        <v>0.06679738994916047</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="P6">
-        <v>0.04815780465956347</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="Q6">
-        <v>0.0332001458</v>
+        <v>0.4086895185133334</v>
       </c>
       <c r="R6">
-        <v>0.1992008748</v>
+        <v>3.678205666620001</v>
       </c>
       <c r="S6">
-        <v>0.002332425037248528</v>
+        <v>0.1080980231133212</v>
       </c>
       <c r="T6">
-        <v>0.001733810072090828</v>
+        <v>0.1106492177883319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8368026666666667</v>
+        <v>7.275335000000001</v>
       </c>
       <c r="H7">
-        <v>2.510408</v>
+        <v>21.826005</v>
       </c>
       <c r="I7">
-        <v>0.03491790680779201</v>
+        <v>0.1780688566639937</v>
       </c>
       <c r="J7">
-        <v>0.03600268086029784</v>
+        <v>0.1822714156546441</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4597873333333333</v>
+        <v>0.03636133333333334</v>
       </c>
       <c r="N7">
-        <v>1.379362</v>
+        <v>0.109084</v>
       </c>
       <c r="O7">
-        <v>0.7741044435627296</v>
+        <v>0.3929425664966427</v>
       </c>
       <c r="P7">
-        <v>0.8371398330286677</v>
+        <v>0.3929425664966428</v>
       </c>
       <c r="Q7">
-        <v>0.3847512666328889</v>
+        <v>0.2645408810466667</v>
       </c>
       <c r="R7">
-        <v>3.462761399696</v>
+        <v>2.38086792942</v>
       </c>
       <c r="S7">
-        <v>0.02703010681982108</v>
+        <v>0.0699708335506725</v>
       </c>
       <c r="T7">
-        <v>0.03013927824397414</v>
+        <v>0.0716221978663122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.339706333333333</v>
+        <v>1.8531425</v>
       </c>
       <c r="H8">
-        <v>22.019119</v>
+        <v>3.706285</v>
       </c>
       <c r="I8">
-        <v>0.3062695566743264</v>
+        <v>0.04535694455450574</v>
       </c>
       <c r="J8">
-        <v>0.3157842526720439</v>
+        <v>0.03095160171408247</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.094498</v>
+        <v>0.05617466666666667</v>
       </c>
       <c r="N8">
-        <v>0.188996</v>
+        <v>0.168524</v>
       </c>
       <c r="O8">
-        <v>0.15909816648811</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="P8">
-        <v>0.1147023623117688</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="Q8">
-        <v>0.6935875690873333</v>
+        <v>0.1040996622233333</v>
       </c>
       <c r="R8">
-        <v>4.161525414524</v>
+        <v>0.62459797334</v>
       </c>
       <c r="S8">
-        <v>0.04872692491801164</v>
+        <v>0.02753427035281233</v>
       </c>
       <c r="T8">
-        <v>0.03622119976233994</v>
+        <v>0.01878939989936902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.339706333333333</v>
+        <v>1.8531425</v>
       </c>
       <c r="H9">
-        <v>22.019119</v>
+        <v>3.706285</v>
       </c>
       <c r="I9">
-        <v>0.3062695566743264</v>
+        <v>0.04535694455450574</v>
       </c>
       <c r="J9">
-        <v>0.3157842526720439</v>
+        <v>0.03095160171408247</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.039675</v>
+        <v>0.03636133333333334</v>
       </c>
       <c r="N9">
-        <v>0.07935</v>
+        <v>0.109084</v>
       </c>
       <c r="O9">
-        <v>0.06679738994916047</v>
+        <v>0.3929425664966427</v>
       </c>
       <c r="P9">
-        <v>0.04815780465956347</v>
+        <v>0.3929425664966428</v>
       </c>
       <c r="Q9">
-        <v>0.291202848775</v>
+        <v>0.06738273215666667</v>
       </c>
       <c r="R9">
-        <v>1.74721709265</v>
+        <v>0.40429639294</v>
       </c>
       <c r="S9">
-        <v>0.02045800700673148</v>
+        <v>0.01782267420169341</v>
       </c>
       <c r="T9">
-        <v>0.01520747635474652</v>
+        <v>0.01216220181471345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.339706333333333</v>
+        <v>27.259396</v>
       </c>
       <c r="H10">
-        <v>22.019119</v>
+        <v>81.778188</v>
       </c>
       <c r="I10">
-        <v>0.3062695566743264</v>
+        <v>0.6671925731352637</v>
       </c>
       <c r="J10">
-        <v>0.3157842526720439</v>
+        <v>0.6829388198358622</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.4597873333333333</v>
+        <v>0.05617466666666667</v>
       </c>
       <c r="N10">
-        <v>1.379362</v>
+        <v>0.168524</v>
       </c>
       <c r="O10">
-        <v>0.7741044435627296</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="P10">
-        <v>0.8371398330286677</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="Q10">
-        <v>3.374704002453111</v>
+        <v>1.531287483834667</v>
       </c>
       <c r="R10">
-        <v>30.372336022078</v>
+        <v>13.781587354512</v>
       </c>
       <c r="S10">
-        <v>0.2370846247495833</v>
+        <v>0.4050242110999942</v>
       </c>
       <c r="T10">
-        <v>0.2643555765549574</v>
+        <v>0.4145830872093703</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>27.259396</v>
+      </c>
+      <c r="H11">
+        <v>81.778188</v>
+      </c>
+      <c r="I11">
+        <v>0.6671925731352637</v>
+      </c>
+      <c r="J11">
+        <v>0.6829388198358622</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.8233635</v>
-      </c>
-      <c r="H11">
-        <v>1.646727</v>
-      </c>
-      <c r="I11">
-        <v>0.03435712039071433</v>
-      </c>
-      <c r="J11">
-        <v>0.02361631521451321</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.094498</v>
+        <v>0.03636133333333334</v>
       </c>
       <c r="N11">
-        <v>0.188996</v>
+        <v>0.109084</v>
       </c>
       <c r="O11">
-        <v>0.15909816648811</v>
+        <v>0.3929425664966427</v>
       </c>
       <c r="P11">
-        <v>0.1147023623117688</v>
+        <v>0.3929425664966428</v>
       </c>
       <c r="Q11">
-        <v>0.07780620402299999</v>
+        <v>0.9911879844213334</v>
       </c>
       <c r="R11">
-        <v>0.311224816092</v>
+        <v>8.920691859792001</v>
       </c>
       <c r="S11">
-        <v>0.005466154859973909</v>
+        <v>0.2621683620352695</v>
       </c>
       <c r="T11">
-        <v>0.002708847144204033</v>
+        <v>0.268355732626492</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8233635</v>
+        <v>2.659269</v>
       </c>
       <c r="H12">
-        <v>1.646727</v>
+        <v>7.977807</v>
       </c>
       <c r="I12">
-        <v>0.03435712039071433</v>
+        <v>0.06508744826073327</v>
       </c>
       <c r="J12">
-        <v>0.02361631521451321</v>
+        <v>0.06662356100942565</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.039675</v>
+        <v>0.05617466666666667</v>
       </c>
       <c r="N12">
-        <v>0.07935</v>
+        <v>0.168524</v>
       </c>
       <c r="O12">
-        <v>0.06679738994916047</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="P12">
-        <v>0.04815780465956347</v>
+        <v>0.6070574335033573</v>
       </c>
       <c r="Q12">
-        <v>0.0326669468625</v>
+        <v>0.149383549652</v>
       </c>
       <c r="R12">
-        <v>0.13066778745</v>
+        <v>1.344451946868</v>
       </c>
       <c r="S12">
-        <v>0.002294965968268798</v>
+        <v>0.0395118192944433</v>
       </c>
       <c r="T12">
-        <v>0.001137309894879204</v>
+        <v>0.04044432795723628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,424 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.659269</v>
+      </c>
+      <c r="H13">
+        <v>7.977807</v>
+      </c>
+      <c r="I13">
+        <v>0.06508744826073327</v>
+      </c>
+      <c r="J13">
+        <v>0.06662356100942565</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.8233635</v>
-      </c>
-      <c r="H13">
-        <v>1.646727</v>
-      </c>
-      <c r="I13">
-        <v>0.03435712039071433</v>
-      </c>
-      <c r="J13">
-        <v>0.02361631521451321</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4597873333333333</v>
+        <v>0.03636133333333334</v>
       </c>
       <c r="N13">
-        <v>1.379362</v>
+        <v>0.109084</v>
       </c>
       <c r="O13">
-        <v>0.7741044435627296</v>
+        <v>0.3929425664966427</v>
       </c>
       <c r="P13">
-        <v>0.8371398330286677</v>
+        <v>0.3929425664966428</v>
       </c>
       <c r="Q13">
-        <v>0.378572108029</v>
+        <v>0.09669456653200001</v>
       </c>
       <c r="R13">
-        <v>2.271432648174</v>
+        <v>0.8702510987880001</v>
       </c>
       <c r="S13">
-        <v>0.02659599956247163</v>
+        <v>0.02557562896628998</v>
       </c>
       <c r="T13">
-        <v>0.01977015817542998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.310028</v>
-      </c>
-      <c r="H14">
-        <v>0.9300840000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.01293677618754339</v>
-      </c>
-      <c r="J14">
-        <v>0.01333867539669618</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.094498</v>
-      </c>
-      <c r="N14">
-        <v>0.188996</v>
-      </c>
-      <c r="O14">
-        <v>0.15909816648811</v>
-      </c>
-      <c r="P14">
-        <v>0.1147023623117688</v>
-      </c>
-      <c r="Q14">
-        <v>0.029297025944</v>
-      </c>
-      <c r="R14">
-        <v>0.175782155664</v>
-      </c>
-      <c r="S14">
-        <v>0.002058217371705196</v>
-      </c>
-      <c r="T14">
-        <v>0.001529977578110922</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.310028</v>
-      </c>
-      <c r="H15">
-        <v>0.9300840000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.01293677618754339</v>
-      </c>
-      <c r="J15">
-        <v>0.01333867539669618</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.039675</v>
-      </c>
-      <c r="N15">
-        <v>0.07935</v>
-      </c>
-      <c r="O15">
-        <v>0.06679738994916047</v>
-      </c>
-      <c r="P15">
-        <v>0.04815780465956347</v>
-      </c>
-      <c r="Q15">
-        <v>0.0123003609</v>
-      </c>
-      <c r="R15">
-        <v>0.07380216540000001</v>
-      </c>
-      <c r="S15">
-        <v>0.0008641428836843495</v>
-      </c>
-      <c r="T15">
-        <v>0.0006423613241714199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.310028</v>
-      </c>
-      <c r="H16">
-        <v>0.9300840000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.01293677618754339</v>
-      </c>
-      <c r="J16">
-        <v>0.01333867539669618</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4597873333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.379362</v>
-      </c>
-      <c r="O16">
-        <v>0.7741044435627296</v>
-      </c>
-      <c r="P16">
-        <v>0.8371398330286677</v>
-      </c>
-      <c r="Q16">
-        <v>0.1425469473786667</v>
-      </c>
-      <c r="R16">
-        <v>1.282922526408</v>
-      </c>
-      <c r="S16">
-        <v>0.01001441593215385</v>
-      </c>
-      <c r="T16">
-        <v>0.01116633649441384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>13.31211066666667</v>
-      </c>
-      <c r="H17">
-        <v>39.936332</v>
-      </c>
-      <c r="I17">
-        <v>0.5554846538973116</v>
-      </c>
-      <c r="J17">
-        <v>0.5727415685923962</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.094498</v>
-      </c>
-      <c r="N17">
-        <v>0.188996</v>
-      </c>
-      <c r="O17">
-        <v>0.15909816648811</v>
-      </c>
-      <c r="P17">
-        <v>0.1147023623117688</v>
-      </c>
-      <c r="Q17">
-        <v>1.257967833778667</v>
-      </c>
-      <c r="R17">
-        <v>7.547807002672</v>
-      </c>
-      <c r="S17">
-        <v>0.08837658994734467</v>
-      </c>
-      <c r="T17">
-        <v>0.06569481091169584</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>13.31211066666667</v>
-      </c>
-      <c r="H18">
-        <v>39.936332</v>
-      </c>
-      <c r="I18">
-        <v>0.5554846538973116</v>
-      </c>
-      <c r="J18">
-        <v>0.5727415685923962</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18">
-        <v>0.039675</v>
-      </c>
-      <c r="N18">
-        <v>0.07935</v>
-      </c>
-      <c r="O18">
-        <v>0.06679738994916047</v>
-      </c>
-      <c r="P18">
-        <v>0.04815780465956347</v>
-      </c>
-      <c r="Q18">
-        <v>0.5281579907</v>
-      </c>
-      <c r="R18">
-        <v>3.1689479442</v>
-      </c>
-      <c r="S18">
-        <v>0.03710492503715317</v>
-      </c>
-      <c r="T18">
-        <v>0.02758197658068459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>13.31211066666667</v>
-      </c>
-      <c r="H19">
-        <v>39.936332</v>
-      </c>
-      <c r="I19">
-        <v>0.5554846538973116</v>
-      </c>
-      <c r="J19">
-        <v>0.5727415685923962</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.4597873333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.379362</v>
-      </c>
-      <c r="O19">
-        <v>0.7741044435627296</v>
-      </c>
-      <c r="P19">
-        <v>0.8371398330286677</v>
-      </c>
-      <c r="Q19">
-        <v>6.120739864464889</v>
-      </c>
-      <c r="R19">
-        <v>55.086658780184</v>
-      </c>
-      <c r="S19">
-        <v>0.4300031389128138</v>
-      </c>
-      <c r="T19">
-        <v>0.4794647811000158</v>
+        <v>0.02617923305218938</v>
       </c>
     </row>
   </sheetData>
